--- a/Simulation/TYPE I ERROR/OneSampleTypeI.errorRate_u.xlsx
+++ b/Simulation/TYPE I ERROR/OneSampleTypeI.errorRate_u.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,34 +426,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.237</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.275</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0.258</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.148</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.218</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -468,34 +468,34 @@
         </is>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.264</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.341</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.305</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.207</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.207</v>
       </c>
       <c r="J3">
-        <v>0.4</v>
+        <v>0.215</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.349</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -510,34 +510,34 @@
         </is>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.438</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.466</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>0.434</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.454</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.659</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -552,34 +552,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.572</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.539</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.591</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.584</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.211</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.582</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0.594</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.649</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -594,34 +594,34 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.671</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.639</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.755</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.724</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.698</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -636,80 +636,38 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.74</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.775</v>
       </c>
       <c r="E7">
-        <v>0.2</v>
+        <v>0.756</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.275</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.822</v>
       </c>
       <c r="I7">
-        <v>0.2</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.879</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.964</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0.2</v>
-      </c>
-      <c r="I8">
-        <v>0.4</v>
-      </c>
-      <c r="J8">
-        <v>0.2</v>
-      </c>
-      <c r="K8">
-        <v>0.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>50</t>
         </is>
       </c>
     </row>
